--- a/Учет контрольных/ПиОА Квантиль (Контрольная работа 3) DIV100.xlsx
+++ b/Учет контрольных/ПиОА Квантиль (Контрольная работа 3) DIV100.xlsx
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
@@ -533,7 +533,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -611,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -689,7 +689,7 @@
         <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="n">
         <v>14</v>
@@ -715,13 +715,13 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E11" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G11" t="n">
         <v>7.000000000000001</v>
@@ -793,7 +793,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
         <v>15</v>
@@ -897,13 +897,13 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" t="n">
         <v>12</v>
       </c>
       <c r="F18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" t="n">
         <v>10</v>
@@ -949,13 +949,13 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
@@ -975,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>13</v>
       </c>
       <c r="F22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" t="n">
         <v>14</v>
@@ -1027,7 +1027,7 @@
         <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
@@ -1053,13 +1053,13 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G24" t="n">
         <v>7.000000000000001</v>
@@ -1079,13 +1079,13 @@
         <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -1105,13 +1105,13 @@
         <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -1261,7 +1261,7 @@
         <v>16</v>
       </c>
       <c r="D32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
         <v>16</v>
@@ -1365,7 +1365,7 @@
         <v>9</v>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
         <v>6</v>
@@ -1495,13 +1495,13 @@
         <v>13</v>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
         <v>9</v>
@@ -1521,13 +1521,13 @@
         <v>12</v>
       </c>
       <c r="D42" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42" t="n">
         <v>14</v>
       </c>
       <c r="F42" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G42" t="n">
         <v>13</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
         <v>2</v>
@@ -1625,13 +1625,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
         <v>3</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -1651,13 +1651,13 @@
         <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
         <v>5</v>
@@ -1703,7 +1703,7 @@
         <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1729,13 +1729,13 @@
         <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G50" t="n">
         <v>7.000000000000001</v>
@@ -1755,13 +1755,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E51" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G51" t="n">
         <v>8</v>
@@ -1781,13 +1781,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E52" t="n">
         <v>5</v>
       </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G52" t="n">
         <v>7.000000000000001</v>
@@ -1807,7 +1807,7 @@
         <v>16</v>
       </c>
       <c r="D53" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53" t="n">
         <v>15</v>
@@ -1859,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="D55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E55" t="n">
         <v>14</v>
@@ -1885,13 +1885,13 @@
         <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E56" t="n">
         <v>6</v>
       </c>
       <c r="F56" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G56" t="n">
         <v>7.000000000000001</v>
@@ -1963,13 +1963,13 @@
         <v>10</v>
       </c>
       <c r="D59" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E59" t="n">
         <v>11</v>
       </c>
       <c r="F59" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59" t="n">
         <v>9</v>
@@ -2021,7 +2021,7 @@
         <v>15</v>
       </c>
       <c r="F61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G61" t="n">
         <v>14</v>
@@ -2041,7 +2041,7 @@
         <v>13</v>
       </c>
       <c r="D62" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E62" t="n">
         <v>16</v>
@@ -2073,7 +2073,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2145,7 +2145,7 @@
         <v>9</v>
       </c>
       <c r="D66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E66" t="n">
         <v>4</v>
@@ -2171,7 +2171,7 @@
         <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
@@ -2223,7 +2223,7 @@
         <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E69" t="n">
         <v>6</v>
@@ -2281,7 +2281,7 @@
         <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G71" t="n">
         <v>10</v>
@@ -2327,13 +2327,13 @@
         <v>13</v>
       </c>
       <c r="D73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E73" t="n">
         <v>12</v>
       </c>
       <c r="F73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G73" t="n">
         <v>11</v>
@@ -2353,13 +2353,13 @@
         <v>14</v>
       </c>
       <c r="D74" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E74" t="n">
         <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G74" t="n">
         <v>11</v>
@@ -2411,7 +2411,7 @@
         <v>14</v>
       </c>
       <c r="F76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G76" t="n">
         <v>13</v>
@@ -2457,7 +2457,7 @@
         <v>13</v>
       </c>
       <c r="D78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E78" t="n">
         <v>9</v>
@@ -2509,13 +2509,13 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
         <v>5</v>
       </c>
       <c r="F80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G80" t="n">
         <v>5</v>
@@ -2541,7 +2541,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G81" t="n">
         <v>6</v>
@@ -2561,7 +2561,7 @@
         <v>8</v>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E82" t="n">
         <v>4</v>
@@ -2587,7 +2587,7 @@
         <v>13</v>
       </c>
       <c r="D83" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E83" t="n">
         <v>16</v>
@@ -2619,7 +2619,7 @@
         <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -2639,7 +2639,7 @@
         <v>10</v>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E85" t="n">
         <v>5</v>
@@ -2665,13 +2665,13 @@
         <v>8</v>
       </c>
       <c r="D86" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E86" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G86" t="n">
         <v>7.000000000000001</v>
@@ -2691,7 +2691,7 @@
         <v>17</v>
       </c>
       <c r="D87" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E87" t="n">
         <v>16</v>
@@ -2717,7 +2717,7 @@
         <v>16</v>
       </c>
       <c r="D88" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E88" t="n">
         <v>16</v>
@@ -2847,7 +2847,7 @@
         <v>12</v>
       </c>
       <c r="D93" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -2873,13 +2873,13 @@
         <v>11</v>
       </c>
       <c r="D94" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
       </c>
       <c r="F94" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G94" t="n">
         <v>11</v>
@@ -3003,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E99" t="n">
         <v>3</v>
@@ -3029,13 +3029,13 @@
         <v>13</v>
       </c>
       <c r="D100" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
       </c>
       <c r="F100" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G100" t="n">
         <v>12</v>
@@ -3107,7 +3107,7 @@
         <v>16</v>
       </c>
       <c r="D103" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E103" t="n">
         <v>16</v>
@@ -3133,13 +3133,13 @@
         <v>14</v>
       </c>
       <c r="D104" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E104" t="n">
         <v>14</v>
       </c>
       <c r="F104" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G104" t="n">
         <v>12</v>
@@ -3159,13 +3159,13 @@
         <v>9</v>
       </c>
       <c r="D105" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E105" t="n">
         <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G105" t="n">
         <v>9</v>
@@ -3185,7 +3185,7 @@
         <v>15</v>
       </c>
       <c r="D106" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E106" t="n">
         <v>16</v>
@@ -3237,7 +3237,7 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E108" t="n">
         <v>4</v>
@@ -3295,7 +3295,7 @@
         <v>13</v>
       </c>
       <c r="F110" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G110" t="n">
         <v>12</v>
@@ -3315,13 +3315,13 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E111" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G111" t="n">
         <v>7.000000000000001</v>
@@ -3367,7 +3367,7 @@
         <v>10</v>
       </c>
       <c r="D113" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E113" t="n">
         <v>7.000000000000001</v>
@@ -3419,7 +3419,7 @@
         <v>16</v>
       </c>
       <c r="D115" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E115" t="n">
         <v>16</v>
@@ -3471,13 +3471,13 @@
         <v>5</v>
       </c>
       <c r="D117" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E117" t="n">
         <v>8</v>
       </c>
       <c r="F117" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G117" t="n">
         <v>7.000000000000001</v>
@@ -3503,7 +3503,7 @@
         <v>9</v>
       </c>
       <c r="F118" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G118" t="n">
         <v>9</v>
@@ -3523,13 +3523,13 @@
         <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
       </c>
       <c r="F119" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G119" t="n">
         <v>11</v>
@@ -3627,7 +3627,7 @@
         <v>13</v>
       </c>
       <c r="D123" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -3685,7 +3685,7 @@
         <v>13</v>
       </c>
       <c r="F125" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G125" t="n">
         <v>12</v>
@@ -3711,7 +3711,7 @@
         <v>2</v>
       </c>
       <c r="F126" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -3757,7 +3757,7 @@
         <v>12</v>
       </c>
       <c r="D128" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E128" t="n">
         <v>16</v>
@@ -3861,13 +3861,13 @@
         <v>13</v>
       </c>
       <c r="D132" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E132" t="n">
         <v>15</v>
       </c>
       <c r="F132" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G132" t="n">
         <v>14</v>
@@ -3887,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E133" t="n">
         <v>3</v>
@@ -3913,13 +3913,13 @@
         <v>2</v>
       </c>
       <c r="D134" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E134" t="n">
         <v>4</v>
       </c>
       <c r="F134" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -3939,7 +3939,7 @@
         <v>17</v>
       </c>
       <c r="D135" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E135" t="n">
         <v>16</v>
@@ -3965,7 +3965,7 @@
         <v>4</v>
       </c>
       <c r="D136" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E136" t="n">
         <v>5</v>
@@ -3997,7 +3997,7 @@
         <v>10</v>
       </c>
       <c r="F137" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G137" t="n">
         <v>10</v>
@@ -4017,7 +4017,7 @@
         <v>3</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E138" t="n">
         <v>3</v>
@@ -4095,7 +4095,7 @@
         <v>17</v>
       </c>
       <c r="D141" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E141" t="n">
         <v>16</v>
@@ -4121,7 +4121,7 @@
         <v>9</v>
       </c>
       <c r="D142" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E142" t="n">
         <v>9</v>
@@ -4147,13 +4147,13 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E143" t="n">
         <v>12</v>
       </c>
       <c r="F143" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G143" t="n">
         <v>12</v>
@@ -4173,13 +4173,13 @@
         <v>3</v>
       </c>
       <c r="D144" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E144" t="n">
         <v>4</v>
       </c>
       <c r="F144" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -4205,7 +4205,7 @@
         <v>12</v>
       </c>
       <c r="F145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G145" t="n">
         <v>10</v>
@@ -4225,7 +4225,7 @@
         <v>8</v>
       </c>
       <c r="D146" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E146" t="n">
         <v>3</v>
@@ -4251,7 +4251,7 @@
         <v>13</v>
       </c>
       <c r="D147" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E147" t="n">
         <v>15</v>
@@ -4329,7 +4329,7 @@
         <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E150" t="n">
         <v>10</v>
@@ -4355,13 +4355,13 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E151" t="n">
         <v>2</v>
       </c>
       <c r="F151" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G151" t="n">
         <v>4</v>
@@ -4407,13 +4407,13 @@
         <v>9</v>
       </c>
       <c r="D153" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E153" t="n">
         <v>10</v>
       </c>
       <c r="F153" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G153" t="n">
         <v>10</v>
@@ -4433,13 +4433,13 @@
         <v>14</v>
       </c>
       <c r="D154" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E154" t="n">
         <v>13</v>
       </c>
       <c r="F154" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G154" t="n">
         <v>12</v>
@@ -4485,7 +4485,7 @@
         <v>4</v>
       </c>
       <c r="D156" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E156" t="n">
         <v>13</v>
@@ -4517,7 +4517,7 @@
         <v>15</v>
       </c>
       <c r="F157" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G157" t="n">
         <v>14</v>
@@ -4543,7 +4543,7 @@
         <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G158" t="n">
         <v>10</v>
@@ -4563,7 +4563,7 @@
         <v>5</v>
       </c>
       <c r="D159" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E159" t="n">
         <v>2</v>
@@ -4589,7 +4589,7 @@
         <v>13</v>
       </c>
       <c r="D160" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E160" t="n">
         <v>13</v>
@@ -4641,7 +4641,7 @@
         <v>9</v>
       </c>
       <c r="D162" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E162" t="n">
         <v>6</v>
@@ -4719,13 +4719,13 @@
         <v>8</v>
       </c>
       <c r="D165" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="n">
         <v>8</v>
       </c>
       <c r="F165" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G165" t="n">
         <v>7.000000000000001</v>
@@ -4751,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="F166" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G166" t="n">
         <v>11</v>
@@ -4771,7 +4771,7 @@
         <v>11</v>
       </c>
       <c r="D167" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E167" t="n">
         <v>6</v>
@@ -4803,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="F168" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G168" t="n">
         <v>11</v>
@@ -4875,13 +4875,13 @@
         <v>5</v>
       </c>
       <c r="D171" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E171" t="n">
         <v>12</v>
       </c>
       <c r="F171" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G171" t="n">
         <v>9</v>
@@ -4901,13 +4901,13 @@
         <v>4</v>
       </c>
       <c r="D172" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
       </c>
       <c r="F172" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G172" t="n">
         <v>9</v>
@@ -4927,7 +4927,7 @@
         <v>8</v>
       </c>
       <c r="D173" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E173" t="n">
         <v>11</v>
@@ -4953,13 +4953,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D174" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E174" t="n">
         <v>3</v>
       </c>
       <c r="F174" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G174" t="n">
         <v>5</v>
@@ -4979,7 +4979,7 @@
         <v>15</v>
       </c>
       <c r="D175" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E175" t="n">
         <v>14</v>
@@ -5005,7 +5005,7 @@
         <v>14</v>
       </c>
       <c r="D176" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E176" t="n">
         <v>12</v>
@@ -5031,7 +5031,7 @@
         <v>11</v>
       </c>
       <c r="D177" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E177" t="n">
         <v>14</v>
@@ -5115,7 +5115,7 @@
         <v>15</v>
       </c>
       <c r="F180" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G180" t="n">
         <v>15</v>
@@ -5167,7 +5167,7 @@
         <v>3</v>
       </c>
       <c r="F182" t="n">
-        <v>4</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G182" t="n">
         <v>5</v>
@@ -5187,13 +5187,13 @@
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E183" t="n">
         <v>4</v>
       </c>
       <c r="F183" t="n">
-        <v>7.000000000000001</v>
+        <v>5</v>
       </c>
       <c r="G183" t="n">
         <v>4</v>
@@ -5213,13 +5213,13 @@
         <v>9</v>
       </c>
       <c r="D184" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E184" t="n">
         <v>11</v>
       </c>
       <c r="F184" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G184" t="n">
         <v>10</v>
@@ -5297,7 +5297,7 @@
         <v>9</v>
       </c>
       <c r="F187" t="n">
-        <v>7.000000000000001</v>
+        <v>13</v>
       </c>
       <c r="G187" t="n">
         <v>9</v>
@@ -5317,7 +5317,7 @@
         <v>14</v>
       </c>
       <c r="D188" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E188" t="n">
         <v>13</v>
@@ -5369,13 +5369,13 @@
         <v>10</v>
       </c>
       <c r="D190" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E190" t="n">
         <v>11</v>
       </c>
       <c r="F190" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G190" t="n">
         <v>10</v>
@@ -5395,13 +5395,13 @@
         <v>15</v>
       </c>
       <c r="D191" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E191" t="n">
         <v>13</v>
       </c>
       <c r="F191" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G191" t="n">
         <v>11</v>
@@ -5557,7 +5557,7 @@
         <v>11</v>
       </c>
       <c r="F197" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G197" t="n">
         <v>11</v>
@@ -5577,7 +5577,7 @@
         <v>16</v>
       </c>
       <c r="D198" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E198" t="n">
         <v>16</v>
@@ -5609,7 +5609,7 @@
         <v>6</v>
       </c>
       <c r="F199" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G199" t="n">
         <v>7.000000000000001</v>
@@ -5629,13 +5629,13 @@
         <v>12</v>
       </c>
       <c r="D200" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E200" t="n">
         <v>11</v>
       </c>
       <c r="F200" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G200" t="n">
         <v>11</v>
@@ -5655,7 +5655,7 @@
         <v>14</v>
       </c>
       <c r="D201" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E201" t="n">
         <v>16</v>
@@ -5707,13 +5707,13 @@
         <v>10</v>
       </c>
       <c r="D203" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
       </c>
       <c r="F203" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G203" t="n">
         <v>9</v>
@@ -5759,13 +5759,13 @@
         <v>2</v>
       </c>
       <c r="D205" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E205" t="n">
         <v>5</v>
       </c>
       <c r="F205" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G205" t="n">
         <v>6</v>
@@ -5785,13 +5785,13 @@
         <v>13</v>
       </c>
       <c r="D206" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E206" t="n">
         <v>12</v>
       </c>
       <c r="F206" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G206" t="n">
         <v>12</v>
@@ -5837,7 +5837,7 @@
         <v>13</v>
       </c>
       <c r="D208" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E208" t="n">
         <v>11</v>
@@ -5889,7 +5889,7 @@
         <v>13</v>
       </c>
       <c r="D210" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E210" t="n">
         <v>15</v>
@@ -5921,7 +5921,7 @@
         <v>13</v>
       </c>
       <c r="F211" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G211" t="n">
         <v>10</v>
@@ -5941,13 +5941,13 @@
         <v>12</v>
       </c>
       <c r="D212" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E212" t="n">
         <v>11</v>
       </c>
       <c r="F212" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G212" t="n">
         <v>11</v>
@@ -5993,13 +5993,13 @@
         <v>13</v>
       </c>
       <c r="D214" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E214" t="n">
         <v>11</v>
       </c>
       <c r="F214" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G214" t="n">
         <v>12</v>
@@ -6019,7 +6019,7 @@
         <v>13</v>
       </c>
       <c r="D215" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E215" t="n">
         <v>14</v>
@@ -6045,13 +6045,13 @@
         <v>10</v>
       </c>
       <c r="D216" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
       </c>
       <c r="F216" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G216" t="n">
         <v>9</v>
@@ -6097,7 +6097,7 @@
         <v>3</v>
       </c>
       <c r="D218" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E218" t="n">
         <v>3</v>
@@ -6123,13 +6123,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D219" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E219" t="n">
         <v>12</v>
       </c>
       <c r="F219" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G219" t="n">
         <v>10</v>
@@ -6175,13 +6175,13 @@
         <v>11</v>
       </c>
       <c r="D221" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E221" t="n">
         <v>12</v>
       </c>
       <c r="F221" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G221" t="n">
         <v>11</v>
@@ -6201,13 +6201,13 @@
         <v>13</v>
       </c>
       <c r="D222" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E222" t="n">
         <v>12</v>
       </c>
       <c r="F222" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G222" t="n">
         <v>11</v>
@@ -6279,7 +6279,7 @@
         <v>9</v>
       </c>
       <c r="D225" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E225" t="n">
         <v>6</v>
@@ -6305,7 +6305,7 @@
         <v>13</v>
       </c>
       <c r="D226" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E226" t="n">
         <v>13</v>
@@ -6331,7 +6331,7 @@
         <v>11</v>
       </c>
       <c r="D227" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E227" t="n">
         <v>11</v>
@@ -6363,7 +6363,7 @@
         <v>12</v>
       </c>
       <c r="F228" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G228" t="n">
         <v>12</v>
@@ -6409,13 +6409,13 @@
         <v>4</v>
       </c>
       <c r="D230" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E230" t="n">
         <v>9</v>
       </c>
       <c r="F230" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G230" t="n">
         <v>8</v>
@@ -6441,7 +6441,7 @@
         <v>8</v>
       </c>
       <c r="F231" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G231" t="n">
         <v>8</v>
@@ -6493,7 +6493,7 @@
         <v>14</v>
       </c>
       <c r="F233" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G233" t="n">
         <v>13</v>
@@ -6513,13 +6513,13 @@
         <v>9</v>
       </c>
       <c r="D234" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E234" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F234" t="n">
-        <v>5</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G234" t="n">
         <v>8</v>
@@ -6571,7 +6571,7 @@
         <v>3</v>
       </c>
       <c r="F236" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G236" t="n">
         <v>5</v>
@@ -6591,7 +6591,7 @@
         <v>13</v>
       </c>
       <c r="D237" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E237" t="n">
         <v>14</v>
@@ -6623,7 +6623,7 @@
         <v>2</v>
       </c>
       <c r="F238" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G238" t="n">
         <v>3</v>
@@ -6649,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="F239" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -6669,7 +6669,7 @@
         <v>4</v>
       </c>
       <c r="D240" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E240" t="n">
         <v>2</v>
@@ -6747,13 +6747,13 @@
         <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E243" t="n">
         <v>9</v>
       </c>
       <c r="F243" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G243" t="n">
         <v>8</v>
@@ -6799,13 +6799,13 @@
         <v>15</v>
       </c>
       <c r="D245" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E245" t="n">
         <v>14</v>
       </c>
       <c r="F245" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G245" t="n">
         <v>12</v>
@@ -6825,13 +6825,13 @@
         <v>12</v>
       </c>
       <c r="D246" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E246" t="n">
         <v>11</v>
       </c>
       <c r="F246" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G246" t="n">
         <v>11</v>
@@ -6851,7 +6851,7 @@
         <v>13</v>
       </c>
       <c r="D247" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E247" t="n">
         <v>15</v>
@@ -7117,7 +7117,7 @@
         <v>13</v>
       </c>
       <c r="F257" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G257" t="n">
         <v>11</v>
@@ -7137,7 +7137,7 @@
         <v>14</v>
       </c>
       <c r="D258" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E258" t="n">
         <v>13</v>
@@ -7163,13 +7163,13 @@
         <v>8</v>
       </c>
       <c r="D259" t="n">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E259" t="n">
         <v>9</v>
       </c>
       <c r="F259" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G259" t="n">
         <v>8</v>
@@ -7189,13 +7189,13 @@
         <v>15</v>
       </c>
       <c r="D260" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E260" t="n">
         <v>14</v>
       </c>
       <c r="F260" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G260" t="n">
         <v>14</v>
@@ -7215,13 +7215,13 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E261" t="n">
         <v>9</v>
       </c>
       <c r="F261" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G261" t="n">
         <v>8</v>
@@ -7241,13 +7241,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D262" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E262" t="n">
         <v>8</v>
       </c>
       <c r="F262" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G262" t="n">
         <v>7.000000000000001</v>
@@ -7267,7 +7267,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D263" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
@@ -7299,7 +7299,7 @@
         <v>10</v>
       </c>
       <c r="F264" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G264" t="n">
         <v>8</v>
@@ -7319,13 +7319,13 @@
         <v>4</v>
       </c>
       <c r="D265" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E265" t="n">
         <v>3</v>
       </c>
       <c r="F265" t="n">
-        <v>5</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G265" t="n">
         <v>4</v>
@@ -7371,13 +7371,13 @@
         <v>12</v>
       </c>
       <c r="D267" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E267" t="n">
         <v>11</v>
       </c>
       <c r="F267" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G267" t="n">
         <v>12</v>
@@ -7397,7 +7397,7 @@
         <v>13</v>
       </c>
       <c r="D268" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E268" t="n">
         <v>13</v>
@@ -7449,7 +7449,7 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E270" t="n">
         <v>3</v>
@@ -7481,7 +7481,7 @@
         <v>14</v>
       </c>
       <c r="F271" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G271" t="n">
         <v>13</v>
@@ -7501,13 +7501,13 @@
         <v>11</v>
       </c>
       <c r="D272" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E272" t="n">
         <v>12</v>
       </c>
       <c r="F272" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G272" t="n">
         <v>11</v>
@@ -7611,7 +7611,7 @@
         <v>12</v>
       </c>
       <c r="F276" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G276" t="n">
         <v>11</v>
@@ -7813,7 +7813,7 @@
         <v>10</v>
       </c>
       <c r="D284" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E284" t="n">
         <v>13</v>
@@ -7865,7 +7865,7 @@
         <v>13</v>
       </c>
       <c r="D286" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E286" t="n">
         <v>10</v>
@@ -7891,7 +7891,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D287" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E287" t="n">
         <v>12</v>
@@ -7917,7 +7917,7 @@
         <v>16</v>
       </c>
       <c r="D288" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E288" t="n">
         <v>11</v>
@@ -7995,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="D291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E291" t="n">
         <v>3</v>
@@ -8047,13 +8047,13 @@
         <v>10</v>
       </c>
       <c r="D293" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E293" t="n">
         <v>13</v>
       </c>
       <c r="F293" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G293" t="n">
         <v>9</v>
@@ -8079,7 +8079,7 @@
         <v>11</v>
       </c>
       <c r="F294" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G294" t="n">
         <v>10</v>
@@ -8151,13 +8151,13 @@
         <v>14</v>
       </c>
       <c r="D297" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E297" t="n">
         <v>14</v>
       </c>
       <c r="F297" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G297" t="n">
         <v>13</v>
@@ -8177,7 +8177,7 @@
         <v>10</v>
       </c>
       <c r="D298" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E298" t="n">
         <v>14</v>
@@ -8229,13 +8229,13 @@
         <v>14</v>
       </c>
       <c r="D300" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E300" t="n">
         <v>11</v>
       </c>
       <c r="F300" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G300" t="n">
         <v>10</v>
@@ -8261,7 +8261,7 @@
         <v>15</v>
       </c>
       <c r="F301" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G301" t="n">
         <v>14</v>
@@ -8281,7 +8281,7 @@
         <v>14</v>
       </c>
       <c r="D302" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E302" t="n">
         <v>16</v>
@@ -8359,7 +8359,7 @@
         <v>3</v>
       </c>
       <c r="D305" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E305" t="n">
         <v>2</v>
@@ -8437,7 +8437,7 @@
         <v>13</v>
       </c>
       <c r="D308" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E308" t="n">
         <v>10</v>
@@ -8463,7 +8463,7 @@
         <v>15</v>
       </c>
       <c r="D309" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E309" t="n">
         <v>13</v>
@@ -8521,7 +8521,7 @@
         <v>13</v>
       </c>
       <c r="F311" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G311" t="n">
         <v>13</v>
@@ -8541,7 +8541,7 @@
         <v>12</v>
       </c>
       <c r="D312" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E312" t="n">
         <v>15</v>
@@ -8567,13 +8567,13 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E313" t="n">
         <v>5</v>
       </c>
       <c r="F313" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G313" t="n">
         <v>6</v>
@@ -8593,7 +8593,7 @@
         <v>12</v>
       </c>
       <c r="D314" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E314" t="n">
         <v>10</v>
@@ -8625,7 +8625,7 @@
         <v>6</v>
       </c>
       <c r="F315" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G315" t="n">
         <v>5</v>
@@ -8671,7 +8671,7 @@
         <v>13</v>
       </c>
       <c r="D317" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E317" t="n">
         <v>14</v>
@@ -8697,13 +8697,13 @@
         <v>14</v>
       </c>
       <c r="D318" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E318" t="n">
         <v>14</v>
       </c>
       <c r="F318" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G318" t="n">
         <v>14</v>
@@ -8723,7 +8723,7 @@
         <v>3</v>
       </c>
       <c r="D319" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E319" t="n">
         <v>6</v>
@@ -8749,7 +8749,7 @@
         <v>14</v>
       </c>
       <c r="D320" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E320" t="n">
         <v>15</v>
@@ -8957,13 +8957,13 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E328" t="n">
         <v>11</v>
       </c>
       <c r="F328" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G328" t="n">
         <v>10</v>
@@ -9009,7 +9009,7 @@
         <v>10</v>
       </c>
       <c r="D330" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E330" t="n">
         <v>13</v>
@@ -9139,7 +9139,7 @@
         <v>12</v>
       </c>
       <c r="D335" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E335" t="n">
         <v>14</v>
@@ -9191,7 +9191,7 @@
         <v>9</v>
       </c>
       <c r="D337" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E337" t="n">
         <v>7.000000000000001</v>
@@ -9217,7 +9217,7 @@
         <v>15</v>
       </c>
       <c r="D338" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E338" t="n">
         <v>13</v>
@@ -9327,7 +9327,7 @@
         <v>12</v>
       </c>
       <c r="F342" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G342" t="n">
         <v>11</v>
@@ -9347,13 +9347,13 @@
         <v>1</v>
       </c>
       <c r="D343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E343" t="n">
         <v>0</v>
       </c>
       <c r="F343" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G343" t="n">
         <v>0</v>
@@ -9373,7 +9373,7 @@
         <v>13</v>
       </c>
       <c r="D344" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E344" t="n">
         <v>15</v>
@@ -9425,7 +9425,7 @@
         <v>15</v>
       </c>
       <c r="D346" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E346" t="n">
         <v>16</v>
@@ -9451,7 +9451,7 @@
         <v>12</v>
       </c>
       <c r="D347" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E347" t="n">
         <v>13</v>
@@ -9503,13 +9503,13 @@
         <v>9</v>
       </c>
       <c r="D349" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E349" t="n">
         <v>11</v>
       </c>
       <c r="F349" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G349" t="n">
         <v>9</v>
@@ -9581,13 +9581,13 @@
         <v>11</v>
       </c>
       <c r="D352" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E352" t="n">
         <v>11</v>
       </c>
       <c r="F352" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G352" t="n">
         <v>12</v>
@@ -9607,7 +9607,7 @@
         <v>13</v>
       </c>
       <c r="D353" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E353" t="n">
         <v>14</v>
@@ -9691,7 +9691,7 @@
         <v>14</v>
       </c>
       <c r="F356" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G356" t="n">
         <v>13</v>
@@ -9711,13 +9711,13 @@
         <v>11</v>
       </c>
       <c r="D357" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E357" t="n">
         <v>13</v>
       </c>
       <c r="F357" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G357" t="n">
         <v>12</v>
@@ -9737,13 +9737,13 @@
         <v>4</v>
       </c>
       <c r="D358" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E358" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F358" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G358" t="n">
         <v>7.000000000000001</v>
@@ -9789,13 +9789,13 @@
         <v>13</v>
       </c>
       <c r="D360" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E360" t="n">
         <v>11</v>
       </c>
       <c r="F360" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G360" t="n">
         <v>11</v>
@@ -9841,7 +9841,7 @@
         <v>5</v>
       </c>
       <c r="D362" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E362" t="n">
         <v>9</v>
@@ -9867,7 +9867,7 @@
         <v>15</v>
       </c>
       <c r="D363" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E363" t="n">
         <v>14</v>
@@ -9945,13 +9945,13 @@
         <v>2</v>
       </c>
       <c r="D366" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E366" t="n">
         <v>2</v>
       </c>
       <c r="F366" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G366" t="n">
         <v>3</v>
@@ -9971,13 +9971,13 @@
         <v>12</v>
       </c>
       <c r="D367" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E367" t="n">
         <v>13</v>
       </c>
       <c r="F367" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G367" t="n">
         <v>12</v>
@@ -10023,7 +10023,7 @@
         <v>4</v>
       </c>
       <c r="D369" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E369" t="n">
         <v>3</v>
@@ -10049,13 +10049,13 @@
         <v>14</v>
       </c>
       <c r="D370" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E370" t="n">
         <v>13</v>
       </c>
       <c r="F370" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G370" t="n">
         <v>12</v>
@@ -10081,7 +10081,7 @@
         <v>13</v>
       </c>
       <c r="F371" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G371" t="n">
         <v>9</v>
@@ -10153,7 +10153,7 @@
         <v>14</v>
       </c>
       <c r="D374" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E374" t="n">
         <v>9</v>
@@ -10179,13 +10179,13 @@
         <v>13</v>
       </c>
       <c r="D375" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E375" t="n">
         <v>12</v>
       </c>
       <c r="F375" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G375" t="n">
         <v>12</v>
@@ -10205,7 +10205,7 @@
         <v>10</v>
       </c>
       <c r="D376" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E376" t="n">
         <v>11</v>
@@ -10231,13 +10231,13 @@
         <v>10</v>
       </c>
       <c r="D377" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E377" t="n">
         <v>4</v>
       </c>
       <c r="F377" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G377" t="n">
         <v>6</v>
@@ -10257,7 +10257,7 @@
         <v>13</v>
       </c>
       <c r="D378" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E378" t="n">
         <v>10</v>
@@ -10283,7 +10283,7 @@
         <v>12</v>
       </c>
       <c r="D379" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E379" t="n">
         <v>9</v>
@@ -10335,7 +10335,7 @@
         <v>13</v>
       </c>
       <c r="D381" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E381" t="n">
         <v>16</v>
@@ -10367,7 +10367,7 @@
         <v>14</v>
       </c>
       <c r="F382" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G382" t="n">
         <v>12</v>
@@ -10419,7 +10419,7 @@
         <v>10</v>
       </c>
       <c r="F384" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G384" t="n">
         <v>9</v>
@@ -10465,13 +10465,13 @@
         <v>14</v>
       </c>
       <c r="D386" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E386" t="n">
         <v>14</v>
       </c>
       <c r="F386" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G386" t="n">
         <v>13</v>
@@ -10491,13 +10491,13 @@
         <v>10</v>
       </c>
       <c r="D387" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E387" t="n">
         <v>10</v>
       </c>
       <c r="F387" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G387" t="n">
         <v>10</v>
@@ -10523,7 +10523,7 @@
         <v>9</v>
       </c>
       <c r="F388" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G388" t="n">
         <v>9</v>
@@ -10543,13 +10543,13 @@
         <v>12</v>
       </c>
       <c r="D389" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E389" t="n">
         <v>11</v>
       </c>
       <c r="F389" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G389" t="n">
         <v>11</v>
@@ -10569,7 +10569,7 @@
         <v>13</v>
       </c>
       <c r="D390" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E390" t="n">
         <v>10</v>
@@ -10601,7 +10601,7 @@
         <v>10</v>
       </c>
       <c r="F391" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G391" t="n">
         <v>9</v>
@@ -10621,7 +10621,7 @@
         <v>12</v>
       </c>
       <c r="D392" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E392" t="n">
         <v>10</v>
@@ -10647,7 +10647,7 @@
         <v>4</v>
       </c>
       <c r="D393" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E393" t="n">
         <v>8</v>
@@ -10673,7 +10673,7 @@
         <v>13</v>
       </c>
       <c r="D394" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E394" t="n">
         <v>10</v>
@@ -10699,13 +10699,13 @@
         <v>12</v>
       </c>
       <c r="D395" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E395" t="n">
         <v>11</v>
       </c>
       <c r="F395" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G395" t="n">
         <v>11</v>
@@ -10725,13 +10725,13 @@
         <v>12</v>
       </c>
       <c r="D396" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E396" t="n">
         <v>11</v>
       </c>
       <c r="F396" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G396" t="n">
         <v>11</v>
@@ -10751,7 +10751,7 @@
         <v>11</v>
       </c>
       <c r="D397" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E397" t="n">
         <v>6</v>
@@ -10777,7 +10777,7 @@
         <v>1</v>
       </c>
       <c r="D398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E398" t="n">
         <v>1</v>
@@ -10809,7 +10809,7 @@
         <v>11</v>
       </c>
       <c r="F399" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G399" t="n">
         <v>10</v>
@@ -10829,13 +10829,13 @@
         <v>8</v>
       </c>
       <c r="D400" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E400" t="n">
         <v>13</v>
       </c>
       <c r="F400" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G400" t="n">
         <v>10</v>
@@ -10861,7 +10861,7 @@
         <v>11</v>
       </c>
       <c r="F401" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G401" t="n">
         <v>10</v>
@@ -10881,13 +10881,13 @@
         <v>10</v>
       </c>
       <c r="D402" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E402" t="n">
         <v>6</v>
       </c>
       <c r="F402" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G402" t="n">
         <v>7.000000000000001</v>
@@ -10933,7 +10933,7 @@
         <v>16</v>
       </c>
       <c r="D404" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E404" t="n">
         <v>15</v>
@@ -10985,7 +10985,7 @@
         <v>14</v>
       </c>
       <c r="D406" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E406" t="n">
         <v>14</v>
@@ -11011,7 +11011,7 @@
         <v>13</v>
       </c>
       <c r="D407" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E407" t="n">
         <v>14</v>
@@ -11037,13 +11037,13 @@
         <v>12</v>
       </c>
       <c r="D408" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E408" t="n">
         <v>11</v>
       </c>
       <c r="F408" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G408" t="n">
         <v>11</v>
@@ -11063,7 +11063,7 @@
         <v>10</v>
       </c>
       <c r="D409" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E409" t="n">
         <v>10</v>
@@ -11089,7 +11089,7 @@
         <v>16</v>
       </c>
       <c r="D410" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E410" t="n">
         <v>16</v>
@@ -11115,13 +11115,13 @@
         <v>13</v>
       </c>
       <c r="D411" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E411" t="n">
         <v>12</v>
       </c>
       <c r="F411" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G411" t="n">
         <v>11</v>
@@ -11147,7 +11147,7 @@
         <v>9</v>
       </c>
       <c r="F412" t="n">
-        <v>10</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G412" t="n">
         <v>8</v>
@@ -11173,7 +11173,7 @@
         <v>8</v>
       </c>
       <c r="F413" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G413" t="n">
         <v>8</v>
@@ -11219,13 +11219,13 @@
         <v>3</v>
       </c>
       <c r="D415" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E415" t="n">
         <v>11</v>
       </c>
       <c r="F415" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G415" t="n">
         <v>8</v>
@@ -11303,7 +11303,7 @@
         <v>10</v>
       </c>
       <c r="F418" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G418" t="n">
         <v>9</v>
@@ -11375,7 +11375,7 @@
         <v>10</v>
       </c>
       <c r="D421" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E421" t="n">
         <v>9</v>
@@ -11401,7 +11401,7 @@
         <v>13</v>
       </c>
       <c r="D422" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E422" t="n">
         <v>13</v>
@@ -11433,7 +11433,7 @@
         <v>11</v>
       </c>
       <c r="F423" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G423" t="n">
         <v>11</v>
@@ -11505,7 +11505,7 @@
         <v>8</v>
       </c>
       <c r="D426" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E426" t="n">
         <v>12</v>
@@ -11609,13 +11609,13 @@
         <v>0</v>
       </c>
       <c r="D430" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E430" t="n">
         <v>1</v>
       </c>
       <c r="F430" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -11635,7 +11635,7 @@
         <v>13</v>
       </c>
       <c r="D431" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E431" t="n">
         <v>15</v>
@@ -11667,7 +11667,7 @@
         <v>12</v>
       </c>
       <c r="F432" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G432" t="n">
         <v>11</v>
@@ -11687,7 +11687,7 @@
         <v>12</v>
       </c>
       <c r="D433" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E433" t="n">
         <v>14</v>
@@ -11713,13 +11713,13 @@
         <v>15</v>
       </c>
       <c r="D434" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E434" t="n">
         <v>12</v>
       </c>
       <c r="F434" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G434" t="n">
         <v>12</v>
@@ -11739,13 +11739,13 @@
         <v>11</v>
       </c>
       <c r="D435" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E435" t="n">
         <v>11</v>
       </c>
       <c r="F435" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G435" t="n">
         <v>10</v>
@@ -11765,13 +11765,13 @@
         <v>13</v>
       </c>
       <c r="D436" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E436" t="n">
         <v>13</v>
       </c>
       <c r="F436" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G436" t="n">
         <v>12</v>
@@ -11791,7 +11791,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D437" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E437" t="n">
         <v>6</v>
@@ -11817,13 +11817,13 @@
         <v>10</v>
       </c>
       <c r="D438" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E438" t="n">
         <v>13</v>
       </c>
       <c r="F438" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G438" t="n">
         <v>12</v>
@@ -11843,13 +11843,13 @@
         <v>14</v>
       </c>
       <c r="D439" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E439" t="n">
         <v>14</v>
       </c>
       <c r="F439" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G439" t="n">
         <v>13</v>
@@ -11869,13 +11869,13 @@
         <v>9</v>
       </c>
       <c r="D440" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E440" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F440" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G440" t="n">
         <v>7.000000000000001</v>
@@ -11895,13 +11895,13 @@
         <v>10</v>
       </c>
       <c r="D441" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E441" t="n">
         <v>11</v>
       </c>
       <c r="F441" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G441" t="n">
         <v>10</v>
@@ -11921,13 +11921,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D442" t="n">
-        <v>10</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E442" t="n">
         <v>8</v>
       </c>
       <c r="F442" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G442" t="n">
         <v>8</v>
@@ -11973,7 +11973,7 @@
         <v>15</v>
       </c>
       <c r="D444" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E444" t="n">
         <v>15</v>
@@ -12025,7 +12025,7 @@
         <v>16</v>
       </c>
       <c r="D446" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E446" t="n">
         <v>16</v>
@@ -12051,13 +12051,13 @@
         <v>8</v>
       </c>
       <c r="D447" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E447" t="n">
         <v>11</v>
       </c>
       <c r="F447" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G447" t="n">
         <v>11</v>
@@ -12077,7 +12077,7 @@
         <v>14</v>
       </c>
       <c r="D448" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E448" t="n">
         <v>14</v>
@@ -12109,7 +12109,7 @@
         <v>14</v>
       </c>
       <c r="F449" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G449" t="n">
         <v>12</v>
@@ -12155,7 +12155,7 @@
         <v>13</v>
       </c>
       <c r="D451" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E451" t="n">
         <v>14</v>
@@ -12187,7 +12187,7 @@
         <v>11</v>
       </c>
       <c r="F452" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G452" t="n">
         <v>10</v>
@@ -12207,7 +12207,7 @@
         <v>12</v>
       </c>
       <c r="D453" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E453" t="n">
         <v>13</v>
@@ -12285,13 +12285,13 @@
         <v>11</v>
       </c>
       <c r="D456" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E456" t="n">
         <v>10</v>
       </c>
       <c r="F456" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G456" t="n">
         <v>9</v>
@@ -12311,13 +12311,13 @@
         <v>11</v>
       </c>
       <c r="D457" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E457" t="n">
         <v>9</v>
       </c>
       <c r="F457" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G457" t="n">
         <v>9</v>
@@ -12389,7 +12389,7 @@
         <v>8</v>
       </c>
       <c r="D460" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E460" t="n">
         <v>6</v>
@@ -12467,13 +12467,13 @@
         <v>13</v>
       </c>
       <c r="D463" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E463" t="n">
         <v>11</v>
       </c>
       <c r="F463" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G463" t="n">
         <v>11</v>
@@ -12519,13 +12519,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D465" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E465" t="n">
         <v>9</v>
       </c>
       <c r="F465" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G465" t="n">
         <v>9</v>
@@ -12551,7 +12551,7 @@
         <v>10</v>
       </c>
       <c r="F466" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G466" t="n">
         <v>9</v>
@@ -12571,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="D467" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E467" t="n">
         <v>4</v>
@@ -12597,13 +12597,13 @@
         <v>1</v>
       </c>
       <c r="D468" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E468" t="n">
         <v>1</v>
       </c>
       <c r="F468" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -12623,7 +12623,7 @@
         <v>13</v>
       </c>
       <c r="D469" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E469" t="n">
         <v>15</v>
@@ -12675,13 +12675,13 @@
         <v>10</v>
       </c>
       <c r="D471" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E471" t="n">
         <v>11</v>
       </c>
       <c r="F471" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G471" t="n">
         <v>10</v>
@@ -12701,7 +12701,7 @@
         <v>12</v>
       </c>
       <c r="D472" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E472" t="n">
         <v>13</v>
@@ -12753,7 +12753,7 @@
         <v>14</v>
       </c>
       <c r="D474" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E474" t="n">
         <v>14</v>
@@ -12785,7 +12785,7 @@
         <v>14</v>
       </c>
       <c r="F475" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G475" t="n">
         <v>12</v>
@@ -12805,7 +12805,7 @@
         <v>11</v>
       </c>
       <c r="D476" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E476" t="n">
         <v>13</v>
@@ -12831,7 +12831,7 @@
         <v>17</v>
       </c>
       <c r="D477" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E477" t="n">
         <v>16</v>
@@ -12857,7 +12857,7 @@
         <v>8</v>
       </c>
       <c r="D478" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E478" t="n">
         <v>9</v>
@@ -12883,7 +12883,7 @@
         <v>12</v>
       </c>
       <c r="D479" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E479" t="n">
         <v>8</v>
@@ -12935,7 +12935,7 @@
         <v>2</v>
       </c>
       <c r="D481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E481" t="n">
         <v>2</v>
@@ -12961,13 +12961,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D482" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E482" t="n">
         <v>4</v>
       </c>
       <c r="F482" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G482" t="n">
         <v>6</v>
@@ -12987,7 +12987,7 @@
         <v>10</v>
       </c>
       <c r="D483" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E483" t="n">
         <v>11</v>
@@ -13013,7 +13013,7 @@
         <v>12</v>
       </c>
       <c r="D484" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E484" t="n">
         <v>14</v>
@@ -13039,7 +13039,7 @@
         <v>16</v>
       </c>
       <c r="D485" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E485" t="n">
         <v>16</v>
@@ -13065,7 +13065,7 @@
         <v>16</v>
       </c>
       <c r="D486" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E486" t="n">
         <v>15</v>
@@ -13097,7 +13097,7 @@
         <v>9</v>
       </c>
       <c r="F487" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G487" t="n">
         <v>9</v>
@@ -13117,7 +13117,7 @@
         <v>10</v>
       </c>
       <c r="D488" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E488" t="n">
         <v>8</v>
@@ -13195,7 +13195,7 @@
         <v>8</v>
       </c>
       <c r="D491" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E491" t="n">
         <v>10</v>
@@ -13221,13 +13221,13 @@
         <v>0</v>
       </c>
       <c r="D492" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E492" t="n">
         <v>3</v>
       </c>
       <c r="F492" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G492" t="n">
         <v>4</v>
@@ -13247,13 +13247,13 @@
         <v>12</v>
       </c>
       <c r="D493" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E493" t="n">
         <v>9</v>
       </c>
       <c r="F493" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G493" t="n">
         <v>8</v>
@@ -13299,7 +13299,7 @@
         <v>9</v>
       </c>
       <c r="D495" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E495" t="n">
         <v>13</v>
@@ -13351,7 +13351,7 @@
         <v>12</v>
       </c>
       <c r="D497" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E497" t="n">
         <v>15</v>
@@ -13383,7 +13383,7 @@
         <v>5</v>
       </c>
       <c r="F498" t="n">
-        <v>4</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G498" t="n">
         <v>7.000000000000001</v>
@@ -13403,13 +13403,13 @@
         <v>5</v>
       </c>
       <c r="D499" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E499" t="n">
         <v>6</v>
       </c>
       <c r="F499" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G499" t="n">
         <v>6</v>
@@ -13481,7 +13481,7 @@
         <v>14</v>
       </c>
       <c r="D502" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E502" t="n">
         <v>14</v>
@@ -13617,7 +13617,7 @@
         <v>11</v>
       </c>
       <c r="F507" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G507" t="n">
         <v>10</v>
@@ -13637,13 +13637,13 @@
         <v>5</v>
       </c>
       <c r="D508" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E508" t="n">
         <v>4</v>
       </c>
       <c r="F508" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G508" t="n">
         <v>3</v>
@@ -13669,7 +13669,7 @@
         <v>12</v>
       </c>
       <c r="F509" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G509" t="n">
         <v>12</v>
@@ -13715,13 +13715,13 @@
         <v>15</v>
       </c>
       <c r="D511" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E511" t="n">
         <v>12</v>
       </c>
       <c r="F511" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G511" t="n">
         <v>12</v>
@@ -13747,7 +13747,7 @@
         <v>11</v>
       </c>
       <c r="F512" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G512" t="n">
         <v>10</v>
@@ -13767,7 +13767,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D513" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E513" t="n">
         <v>10</v>
@@ -13799,7 +13799,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="F514" t="n">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G514" t="n">
         <v>8</v>
@@ -13819,7 +13819,7 @@
         <v>17</v>
       </c>
       <c r="D515" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E515" t="n">
         <v>16</v>
@@ -13871,13 +13871,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D517" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E517" t="n">
         <v>4</v>
       </c>
       <c r="F517" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G517" t="n">
         <v>7.000000000000001</v>
@@ -13897,7 +13897,7 @@
         <v>5</v>
       </c>
       <c r="D518" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E518" t="n">
         <v>1</v>
@@ -13923,13 +13923,13 @@
         <v>9</v>
       </c>
       <c r="D519" t="n">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E519" t="n">
         <v>9</v>
       </c>
       <c r="F519" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G519" t="n">
         <v>9</v>
@@ -13949,7 +13949,7 @@
         <v>15</v>
       </c>
       <c r="D520" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E520" t="n">
         <v>15</v>
@@ -13975,7 +13975,7 @@
         <v>12</v>
       </c>
       <c r="D521" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E521" t="n">
         <v>12</v>
@@ -14053,7 +14053,7 @@
         <v>13</v>
       </c>
       <c r="D524" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E524" t="n">
         <v>10</v>
@@ -14131,13 +14131,13 @@
         <v>2</v>
       </c>
       <c r="D527" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E527" t="n">
         <v>6</v>
       </c>
       <c r="F527" t="n">
-        <v>7.000000000000001</v>
+        <v>13</v>
       </c>
       <c r="G527" t="n">
         <v>4</v>
@@ -14163,7 +14163,7 @@
         <v>15</v>
       </c>
       <c r="F528" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G528" t="n">
         <v>13</v>
@@ -14209,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="D530" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E530" t="n">
         <v>0</v>
@@ -14235,7 +14235,7 @@
         <v>1</v>
       </c>
       <c r="D531" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E531" t="n">
         <v>2</v>
@@ -14313,13 +14313,13 @@
         <v>12</v>
       </c>
       <c r="D534" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E534" t="n">
         <v>11</v>
       </c>
       <c r="F534" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G534" t="n">
         <v>11</v>
@@ -14339,13 +14339,13 @@
         <v>9</v>
       </c>
       <c r="D535" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E535" t="n">
         <v>10</v>
       </c>
       <c r="F535" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G535" t="n">
         <v>10</v>
@@ -14391,7 +14391,7 @@
         <v>12</v>
       </c>
       <c r="D537" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E537" t="n">
         <v>12</v>
@@ -14469,7 +14469,7 @@
         <v>14</v>
       </c>
       <c r="D540" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E540" t="n">
         <v>14</v>
@@ -14547,7 +14547,7 @@
         <v>13</v>
       </c>
       <c r="D543" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E543" t="n">
         <v>11</v>
@@ -14599,13 +14599,13 @@
         <v>11</v>
       </c>
       <c r="D545" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E545" t="n">
         <v>10</v>
       </c>
       <c r="F545" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G545" t="n">
         <v>9</v>
@@ -14677,7 +14677,7 @@
         <v>15</v>
       </c>
       <c r="D548" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E548" t="n">
         <v>16</v>
@@ -14735,7 +14735,7 @@
         <v>11</v>
       </c>
       <c r="F550" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G550" t="n">
         <v>12</v>
@@ -14781,13 +14781,13 @@
         <v>8</v>
       </c>
       <c r="D552" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E552" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F552" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G552" t="n">
         <v>7.000000000000001</v>
@@ -14807,13 +14807,13 @@
         <v>10</v>
       </c>
       <c r="D553" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E553" t="n">
         <v>13</v>
       </c>
       <c r="F553" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G553" t="n">
         <v>11</v>
@@ -14839,7 +14839,7 @@
         <v>12</v>
       </c>
       <c r="F554" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G554" t="n">
         <v>10</v>
@@ -14911,7 +14911,7 @@
         <v>17</v>
       </c>
       <c r="D557" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E557" t="n">
         <v>16</v>
@@ -14963,7 +14963,7 @@
         <v>15</v>
       </c>
       <c r="D559" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E559" t="n">
         <v>15</v>
@@ -14995,7 +14995,7 @@
         <v>11</v>
       </c>
       <c r="F560" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G560" t="n">
         <v>10</v>
@@ -15015,13 +15015,13 @@
         <v>8</v>
       </c>
       <c r="D561" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E561" t="n">
         <v>10</v>
       </c>
       <c r="F561" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G561" t="n">
         <v>10</v>
@@ -15041,7 +15041,7 @@
         <v>5</v>
       </c>
       <c r="D562" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E562" t="n">
         <v>6</v>
@@ -15171,13 +15171,13 @@
         <v>12</v>
       </c>
       <c r="D567" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E567" t="n">
         <v>12</v>
       </c>
       <c r="F567" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G567" t="n">
         <v>11</v>
@@ -15197,7 +15197,7 @@
         <v>10</v>
       </c>
       <c r="D568" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E568" t="n">
         <v>9</v>
@@ -15223,13 +15223,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D569" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E569" t="n">
         <v>4</v>
       </c>
       <c r="F569" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G569" t="n">
         <v>5</v>
@@ -15275,13 +15275,13 @@
         <v>13</v>
       </c>
       <c r="D571" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E571" t="n">
         <v>13</v>
       </c>
       <c r="F571" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G571" t="n">
         <v>13</v>
@@ -15333,7 +15333,7 @@
         <v>2</v>
       </c>
       <c r="F573" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G573" t="n">
         <v>4</v>
@@ -15353,13 +15353,13 @@
         <v>4</v>
       </c>
       <c r="D574" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E574" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F574" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G574" t="n">
         <v>7.000000000000001</v>
@@ -15385,7 +15385,7 @@
         <v>12</v>
       </c>
       <c r="F575" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G575" t="n">
         <v>11</v>
@@ -15457,13 +15457,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D578" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E578" t="n">
         <v>3</v>
       </c>
       <c r="F578" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G578" t="n">
         <v>4</v>
@@ -15587,7 +15587,7 @@
         <v>15</v>
       </c>
       <c r="D583" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E583" t="n">
         <v>16</v>
@@ -15613,7 +15613,7 @@
         <v>13</v>
       </c>
       <c r="D584" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E584" t="n">
         <v>13</v>
@@ -15665,7 +15665,7 @@
         <v>2</v>
       </c>
       <c r="D586" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E586" t="n">
         <v>3</v>
@@ -15743,7 +15743,7 @@
         <v>16</v>
       </c>
       <c r="D589" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E589" t="n">
         <v>16</v>
@@ -15769,7 +15769,7 @@
         <v>5</v>
       </c>
       <c r="D590" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E590" t="n">
         <v>9</v>
@@ -15795,13 +15795,13 @@
         <v>13</v>
       </c>
       <c r="D591" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E591" t="n">
         <v>12</v>
       </c>
       <c r="F591" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G591" t="n">
         <v>13</v>
@@ -15847,13 +15847,13 @@
         <v>5</v>
       </c>
       <c r="D593" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E593" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F593" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G593" t="n">
         <v>6</v>
@@ -15873,13 +15873,13 @@
         <v>11</v>
       </c>
       <c r="D594" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E594" t="n">
         <v>11</v>
       </c>
       <c r="F594" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G594" t="n">
         <v>11</v>
@@ -15899,7 +15899,7 @@
         <v>9</v>
       </c>
       <c r="D595" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E595" t="n">
         <v>6</v>
@@ -15925,7 +15925,7 @@
         <v>4</v>
       </c>
       <c r="D596" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E596" t="n">
         <v>5</v>
@@ -15957,7 +15957,7 @@
         <v>12</v>
       </c>
       <c r="F597" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G597" t="n">
         <v>11</v>
@@ -15977,7 +15977,7 @@
         <v>12</v>
       </c>
       <c r="D598" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E598" t="n">
         <v>12</v>
@@ -16003,7 +16003,7 @@
         <v>9</v>
       </c>
       <c r="D599" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E599" t="n">
         <v>5</v>
@@ -16029,7 +16029,7 @@
         <v>15</v>
       </c>
       <c r="D600" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E600" t="n">
         <v>16</v>
@@ -16133,7 +16133,7 @@
         <v>15</v>
       </c>
       <c r="D604" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E604" t="n">
         <v>16</v>
@@ -16185,13 +16185,13 @@
         <v>8</v>
       </c>
       <c r="D606" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E606" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F606" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G606" t="n">
         <v>7.000000000000001</v>
@@ -16237,7 +16237,7 @@
         <v>13</v>
       </c>
       <c r="D608" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E608" t="n">
         <v>11</v>
@@ -16263,7 +16263,7 @@
         <v>14</v>
       </c>
       <c r="D609" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E609" t="n">
         <v>16</v>
@@ -16295,7 +16295,7 @@
         <v>6</v>
       </c>
       <c r="F610" t="n">
-        <v>7.000000000000001</v>
+        <v>13</v>
       </c>
       <c r="G610" t="n">
         <v>5</v>
@@ -16367,7 +16367,7 @@
         <v>8</v>
       </c>
       <c r="D613" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E613" t="n">
         <v>9</v>
@@ -16393,7 +16393,7 @@
         <v>4</v>
       </c>
       <c r="D614" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E614" t="n">
         <v>3</v>
@@ -16419,7 +16419,7 @@
         <v>12</v>
       </c>
       <c r="D615" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E615" t="n">
         <v>12</v>
@@ -16445,7 +16445,7 @@
         <v>8</v>
       </c>
       <c r="D616" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="E616" t="n">
         <v>7.000000000000001</v>
@@ -16477,7 +16477,7 @@
         <v>13</v>
       </c>
       <c r="F617" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G617" t="n">
         <v>11</v>
@@ -16497,13 +16497,13 @@
         <v>12</v>
       </c>
       <c r="D618" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E618" t="n">
         <v>12</v>
       </c>
       <c r="F618" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G618" t="n">
         <v>11</v>
@@ -16523,13 +16523,13 @@
         <v>13</v>
       </c>
       <c r="D619" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E619" t="n">
         <v>11</v>
       </c>
       <c r="F619" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G619" t="n">
         <v>11</v>
@@ -16705,13 +16705,13 @@
         <v>12</v>
       </c>
       <c r="D626" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E626" t="n">
         <v>11</v>
       </c>
       <c r="F626" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G626" t="n">
         <v>11</v>
@@ -16731,7 +16731,7 @@
         <v>0</v>
       </c>
       <c r="D627" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E627" t="n">
         <v>4</v>
@@ -16757,7 +16757,7 @@
         <v>12</v>
       </c>
       <c r="D628" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E628" t="n">
         <v>10</v>
@@ -16783,7 +16783,7 @@
         <v>14</v>
       </c>
       <c r="D629" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E629" t="n">
         <v>12</v>
@@ -16815,7 +16815,7 @@
         <v>9</v>
       </c>
       <c r="F630" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G630" t="n">
         <v>9</v>
@@ -16835,13 +16835,13 @@
         <v>9</v>
       </c>
       <c r="D631" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E631" t="n">
         <v>4</v>
       </c>
       <c r="F631" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G631" t="n">
         <v>6</v>
@@ -16861,7 +16861,7 @@
         <v>13</v>
       </c>
       <c r="D632" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E632" t="n">
         <v>12</v>
@@ -16887,7 +16887,7 @@
         <v>16</v>
       </c>
       <c r="D633" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E633" t="n">
         <v>15</v>
@@ -16913,13 +16913,13 @@
         <v>12</v>
       </c>
       <c r="D634" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E634" t="n">
         <v>11</v>
       </c>
       <c r="F634" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G634" t="n">
         <v>11</v>
@@ -16939,7 +16939,7 @@
         <v>9</v>
       </c>
       <c r="D635" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E635" t="n">
         <v>12</v>
@@ -16965,13 +16965,13 @@
         <v>11</v>
       </c>
       <c r="D636" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E636" t="n">
         <v>13</v>
       </c>
       <c r="F636" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G636" t="n">
         <v>11</v>
@@ -16991,7 +16991,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D637" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E637" t="n">
         <v>13</v>
@@ -17017,13 +17017,13 @@
         <v>8</v>
       </c>
       <c r="D638" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E638" t="n">
         <v>9</v>
       </c>
       <c r="F638" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G638" t="n">
         <v>9</v>
@@ -17069,7 +17069,7 @@
         <v>14</v>
       </c>
       <c r="D640" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E640" t="n">
         <v>15</v>
@@ -17121,7 +17121,7 @@
         <v>8</v>
       </c>
       <c r="D642" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E642" t="n">
         <v>5</v>
@@ -17147,7 +17147,7 @@
         <v>14</v>
       </c>
       <c r="D643" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E643" t="n">
         <v>15</v>
@@ -17179,7 +17179,7 @@
         <v>12</v>
       </c>
       <c r="F644" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G644" t="n">
         <v>12</v>
@@ -17225,13 +17225,13 @@
         <v>9</v>
       </c>
       <c r="D646" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E646" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F646" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G646" t="n">
         <v>8</v>
@@ -17257,7 +17257,7 @@
         <v>11</v>
       </c>
       <c r="F647" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G647" t="n">
         <v>9</v>
@@ -17303,13 +17303,13 @@
         <v>15</v>
       </c>
       <c r="D649" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E649" t="n">
         <v>14</v>
       </c>
       <c r="F649" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G649" t="n">
         <v>11</v>
@@ -17381,13 +17381,13 @@
         <v>12</v>
       </c>
       <c r="D652" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E652" t="n">
         <v>11</v>
       </c>
       <c r="F652" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G652" t="n">
         <v>10</v>
@@ -17433,7 +17433,7 @@
         <v>8</v>
       </c>
       <c r="D654" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E654" t="n">
         <v>14</v>
@@ -17459,7 +17459,7 @@
         <v>16</v>
       </c>
       <c r="D655" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E655" t="n">
         <v>16</v>
@@ -17485,7 +17485,7 @@
         <v>9</v>
       </c>
       <c r="D656" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E656" t="n">
         <v>9</v>
@@ -17589,7 +17589,7 @@
         <v>11</v>
       </c>
       <c r="D660" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E660" t="n">
         <v>11</v>
@@ -17615,7 +17615,7 @@
         <v>15</v>
       </c>
       <c r="D661" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E661" t="n">
         <v>15</v>
@@ -17667,7 +17667,7 @@
         <v>6</v>
       </c>
       <c r="D663" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E663" t="n">
         <v>6</v>
@@ -17693,13 +17693,13 @@
         <v>6</v>
       </c>
       <c r="D664" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E664" t="n">
         <v>5</v>
       </c>
       <c r="F664" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G664" t="n">
         <v>5</v>
@@ -17719,7 +17719,7 @@
         <v>10</v>
       </c>
       <c r="D665" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E665" t="n">
         <v>9</v>
@@ -17777,7 +17777,7 @@
         <v>12</v>
       </c>
       <c r="F667" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G667" t="n">
         <v>11</v>
@@ -17797,7 +17797,7 @@
         <v>13</v>
       </c>
       <c r="D668" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E668" t="n">
         <v>13</v>
@@ -17829,7 +17829,7 @@
         <v>13</v>
       </c>
       <c r="F669" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G669" t="n">
         <v>12</v>
@@ -17875,13 +17875,13 @@
         <v>13</v>
       </c>
       <c r="D671" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E671" t="n">
         <v>12</v>
       </c>
       <c r="F671" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G671" t="n">
         <v>13</v>
@@ -17901,7 +17901,7 @@
         <v>10</v>
       </c>
       <c r="D672" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E672" t="n">
         <v>14</v>
@@ -17953,13 +17953,13 @@
         <v>14</v>
       </c>
       <c r="D674" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E674" t="n">
         <v>12</v>
       </c>
       <c r="F674" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G674" t="n">
         <v>12</v>
@@ -17979,13 +17979,13 @@
         <v>14</v>
       </c>
       <c r="D675" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E675" t="n">
         <v>12</v>
       </c>
       <c r="F675" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G675" t="n">
         <v>13</v>
@@ -18063,7 +18063,7 @@
         <v>10</v>
       </c>
       <c r="F678" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G678" t="n">
         <v>10</v>
@@ -18089,7 +18089,7 @@
         <v>8</v>
       </c>
       <c r="F679" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G679" t="n">
         <v>8</v>
@@ -18109,13 +18109,13 @@
         <v>10</v>
       </c>
       <c r="D680" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E680" t="n">
         <v>12</v>
       </c>
       <c r="F680" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G680" t="n">
         <v>12</v>
@@ -18135,13 +18135,13 @@
         <v>11</v>
       </c>
       <c r="D681" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E681" t="n">
         <v>13</v>
       </c>
       <c r="F681" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G681" t="n">
         <v>11</v>
@@ -18187,13 +18187,13 @@
         <v>12</v>
       </c>
       <c r="D683" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E683" t="n">
         <v>11</v>
       </c>
       <c r="F683" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G683" t="n">
         <v>11</v>
@@ -18213,13 +18213,13 @@
         <v>13</v>
       </c>
       <c r="D684" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E684" t="n">
         <v>13</v>
       </c>
       <c r="F684" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G684" t="n">
         <v>13</v>
@@ -18291,7 +18291,7 @@
         <v>16</v>
       </c>
       <c r="D687" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E687" t="n">
         <v>15</v>
@@ -18317,7 +18317,7 @@
         <v>15</v>
       </c>
       <c r="D688" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E688" t="n">
         <v>15</v>
@@ -18343,13 +18343,13 @@
         <v>5</v>
       </c>
       <c r="D689" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E689" t="n">
         <v>5</v>
       </c>
       <c r="F689" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G689" t="n">
         <v>4</v>
@@ -18369,13 +18369,13 @@
         <v>13</v>
       </c>
       <c r="D690" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E690" t="n">
         <v>13</v>
       </c>
       <c r="F690" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G690" t="n">
         <v>11</v>
@@ -18395,7 +18395,7 @@
         <v>11</v>
       </c>
       <c r="D691" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E691" t="n">
         <v>9</v>
@@ -18421,7 +18421,7 @@
         <v>12</v>
       </c>
       <c r="D692" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E692" t="n">
         <v>15</v>
@@ -18447,13 +18447,13 @@
         <v>5</v>
       </c>
       <c r="D693" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E693" t="n">
         <v>5</v>
       </c>
       <c r="F693" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G693" t="n">
         <v>5</v>
@@ -18479,7 +18479,7 @@
         <v>11</v>
       </c>
       <c r="F694" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G694" t="n">
         <v>11</v>
@@ -18577,7 +18577,7 @@
         <v>13</v>
       </c>
       <c r="D698" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E698" t="n">
         <v>14</v>
@@ -18603,7 +18603,7 @@
         <v>10</v>
       </c>
       <c r="D699" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E699" t="n">
         <v>8</v>
@@ -18655,7 +18655,7 @@
         <v>16</v>
       </c>
       <c r="D701" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E701" t="n">
         <v>16</v>
@@ -18681,7 +18681,7 @@
         <v>3</v>
       </c>
       <c r="D702" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E702" t="n">
         <v>4</v>
@@ -18713,7 +18713,7 @@
         <v>5</v>
       </c>
       <c r="F703" t="n">
-        <v>7.000000000000001</v>
+        <v>4</v>
       </c>
       <c r="G703" t="n">
         <v>6</v>
@@ -18739,7 +18739,7 @@
         <v>15</v>
       </c>
       <c r="F704" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G704" t="n">
         <v>14</v>
@@ -18791,7 +18791,7 @@
         <v>12</v>
       </c>
       <c r="F706" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G706" t="n">
         <v>11</v>
@@ -18843,7 +18843,7 @@
         <v>9</v>
       </c>
       <c r="F708" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G708" t="n">
         <v>9</v>
@@ -18863,7 +18863,7 @@
         <v>12</v>
       </c>
       <c r="D709" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E709" t="n">
         <v>14</v>
@@ -18889,7 +18889,7 @@
         <v>9</v>
       </c>
       <c r="D710" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E710" t="n">
         <v>10</v>
@@ -18915,13 +18915,13 @@
         <v>14</v>
       </c>
       <c r="D711" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E711" t="n">
         <v>10</v>
       </c>
       <c r="F711" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G711" t="n">
         <v>10</v>
@@ -18967,13 +18967,13 @@
         <v>11</v>
       </c>
       <c r="D713" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E713" t="n">
         <v>12</v>
       </c>
       <c r="F713" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G713" t="n">
         <v>11</v>
@@ -18993,7 +18993,7 @@
         <v>11</v>
       </c>
       <c r="D714" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E714" t="n">
         <v>12</v>
@@ -19019,7 +19019,7 @@
         <v>5</v>
       </c>
       <c r="D715" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E715" t="n">
         <v>8</v>
@@ -19071,7 +19071,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D717" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E717" t="n">
         <v>13</v>
@@ -19103,7 +19103,7 @@
         <v>14</v>
       </c>
       <c r="F718" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G718" t="n">
         <v>12</v>
@@ -19123,7 +19123,7 @@
         <v>12</v>
       </c>
       <c r="D719" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E719" t="n">
         <v>9</v>
@@ -19233,7 +19233,7 @@
         <v>1</v>
       </c>
       <c r="F723" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G723" t="n">
         <v>1</v>
@@ -19253,13 +19253,13 @@
         <v>8</v>
       </c>
       <c r="D724" t="n">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E724" t="n">
         <v>9</v>
       </c>
       <c r="F724" t="n">
-        <v>11</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G724" t="n">
         <v>8</v>
@@ -19305,7 +19305,7 @@
         <v>10</v>
       </c>
       <c r="D726" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E726" t="n">
         <v>12</v>
@@ -19435,7 +19435,7 @@
         <v>12</v>
       </c>
       <c r="D731" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E731" t="n">
         <v>11</v>
@@ -19487,13 +19487,13 @@
         <v>9</v>
       </c>
       <c r="D733" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E733" t="n">
         <v>5</v>
       </c>
       <c r="F733" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G733" t="n">
         <v>6</v>
@@ -19519,7 +19519,7 @@
         <v>15</v>
       </c>
       <c r="F734" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G734" t="n">
         <v>15</v>
@@ -19545,7 +19545,7 @@
         <v>3</v>
       </c>
       <c r="F735" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G735" t="n">
         <v>5</v>
@@ -19565,13 +19565,13 @@
         <v>6</v>
       </c>
       <c r="D736" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E736" t="n">
         <v>12</v>
       </c>
       <c r="F736" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G736" t="n">
         <v>9</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="D737" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E737" t="n">
         <v>1</v>
@@ -19643,13 +19643,13 @@
         <v>3</v>
       </c>
       <c r="D739" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E739" t="n">
         <v>2</v>
       </c>
       <c r="F739" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G739" t="n">
         <v>3</v>
@@ -19669,7 +19669,7 @@
         <v>12</v>
       </c>
       <c r="D740" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E740" t="n">
         <v>10</v>
@@ -19701,7 +19701,7 @@
         <v>11</v>
       </c>
       <c r="F741" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G741" t="n">
         <v>11</v>
@@ -19721,7 +19721,7 @@
         <v>15</v>
       </c>
       <c r="D742" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E742" t="n">
         <v>14</v>
@@ -19747,7 +19747,7 @@
         <v>10</v>
       </c>
       <c r="D743" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E743" t="n">
         <v>14</v>
@@ -19825,7 +19825,7 @@
         <v>2</v>
       </c>
       <c r="D746" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E746" t="n">
         <v>0</v>
@@ -19851,13 +19851,13 @@
         <v>13</v>
       </c>
       <c r="D747" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E747" t="n">
         <v>12</v>
       </c>
       <c r="F747" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G747" t="n">
         <v>10</v>
@@ -19903,13 +19903,13 @@
         <v>6</v>
       </c>
       <c r="D749" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E749" t="n">
         <v>9</v>
       </c>
       <c r="F749" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G749" t="n">
         <v>9</v>
@@ -19935,7 +19935,7 @@
         <v>12</v>
       </c>
       <c r="F750" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G750" t="n">
         <v>12</v>
@@ -19955,13 +19955,13 @@
         <v>6</v>
       </c>
       <c r="D751" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E751" t="n">
         <v>6</v>
       </c>
       <c r="F751" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="G751" t="n">
         <v>6</v>
@@ -19981,7 +19981,7 @@
         <v>12</v>
       </c>
       <c r="D752" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -20007,7 +20007,7 @@
         <v>10</v>
       </c>
       <c r="D753" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E753" t="n">
         <v>8</v>
@@ -20033,7 +20033,7 @@
         <v>16</v>
       </c>
       <c r="D754" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E754" t="n">
         <v>16</v>
@@ -20065,7 +20065,7 @@
         <v>14</v>
       </c>
       <c r="F755" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G755" t="n">
         <v>12</v>
@@ -20143,7 +20143,7 @@
         <v>9</v>
       </c>
       <c r="F758" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G758" t="n">
         <v>10</v>
@@ -20195,7 +20195,7 @@
         <v>13</v>
       </c>
       <c r="F760" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G760" t="n">
         <v>11</v>
@@ -20215,7 +20215,7 @@
         <v>12</v>
       </c>
       <c r="D761" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E761" t="n">
         <v>9</v>
@@ -20241,13 +20241,13 @@
         <v>9</v>
       </c>
       <c r="D762" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E762" t="n">
         <v>3</v>
       </c>
       <c r="F762" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G762" t="n">
         <v>3</v>
@@ -20267,7 +20267,7 @@
         <v>12</v>
       </c>
       <c r="D763" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E763" t="n">
         <v>10</v>
@@ -20293,13 +20293,13 @@
         <v>11</v>
       </c>
       <c r="D764" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E764" t="n">
         <v>9</v>
       </c>
       <c r="F764" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G764" t="n">
         <v>9</v>
@@ -20319,13 +20319,13 @@
         <v>13</v>
       </c>
       <c r="D765" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E765" t="n">
         <v>12</v>
       </c>
       <c r="F765" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G765" t="n">
         <v>12</v>
@@ -20397,7 +20397,7 @@
         <v>13</v>
       </c>
       <c r="D768" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E768" t="n">
         <v>13</v>
@@ -20423,7 +20423,7 @@
         <v>12</v>
       </c>
       <c r="D769" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E769" t="n">
         <v>14</v>
@@ -20449,13 +20449,13 @@
         <v>10</v>
       </c>
       <c r="D770" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E770" t="n">
         <v>11</v>
       </c>
       <c r="F770" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G770" t="n">
         <v>11</v>
@@ -20501,13 +20501,13 @@
         <v>14</v>
       </c>
       <c r="D772" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E772" t="n">
         <v>15</v>
       </c>
       <c r="F772" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G772" t="n">
         <v>13</v>
@@ -20527,7 +20527,7 @@
         <v>10</v>
       </c>
       <c r="D773" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E773" t="n">
         <v>5</v>
@@ -20559,7 +20559,7 @@
         <v>9</v>
       </c>
       <c r="F774" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G774" t="n">
         <v>10</v>
@@ -20611,7 +20611,7 @@
         <v>12</v>
       </c>
       <c r="F776" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G776" t="n">
         <v>11</v>
@@ -20683,13 +20683,13 @@
         <v>4</v>
       </c>
       <c r="D779" t="n">
-        <v>10</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E779" t="n">
         <v>6</v>
       </c>
       <c r="F779" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G779" t="n">
         <v>5</v>
@@ -20735,7 +20735,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D781" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E781" t="n">
         <v>9</v>
@@ -20767,7 +20767,7 @@
         <v>5</v>
       </c>
       <c r="F782" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="G782" t="n">
         <v>5</v>
@@ -20839,7 +20839,7 @@
         <v>14</v>
       </c>
       <c r="D785" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -20865,7 +20865,7 @@
         <v>10</v>
       </c>
       <c r="D786" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E786" t="n">
         <v>8</v>
@@ -20923,7 +20923,7 @@
         <v>10</v>
       </c>
       <c r="F788" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G788" t="n">
         <v>10</v>
@@ -20943,13 +20943,13 @@
         <v>14</v>
       </c>
       <c r="D789" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E789" t="n">
         <v>14</v>
       </c>
       <c r="F789" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G789" t="n">
         <v>13</v>
@@ -20969,13 +20969,13 @@
         <v>2</v>
       </c>
       <c r="D790" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E790" t="n">
         <v>3</v>
       </c>
       <c r="F790" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G790" t="n">
         <v>2</v>
@@ -21027,7 +21027,7 @@
         <v>10</v>
       </c>
       <c r="F792" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G792" t="n">
         <v>9</v>
@@ -21151,13 +21151,13 @@
         <v>13</v>
       </c>
       <c r="D797" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E797" t="n">
         <v>12</v>
       </c>
       <c r="F797" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G797" t="n">
         <v>10</v>
@@ -21177,13 +21177,13 @@
         <v>10</v>
       </c>
       <c r="D798" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E798" t="n">
         <v>12</v>
       </c>
       <c r="F798" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G798" t="n">
         <v>12</v>
@@ -21203,7 +21203,7 @@
         <v>14</v>
       </c>
       <c r="D799" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -21255,7 +21255,7 @@
         <v>2</v>
       </c>
       <c r="D801" t="n">
-        <v>7.000000000000001</v>
+        <v>8</v>
       </c>
       <c r="E801" t="n">
         <v>5</v>
@@ -21385,13 +21385,13 @@
         <v>12</v>
       </c>
       <c r="D806" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
       </c>
       <c r="F806" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G806" t="n">
         <v>12</v>
@@ -21411,13 +21411,13 @@
         <v>12</v>
       </c>
       <c r="D807" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E807" t="n">
         <v>12</v>
       </c>
       <c r="F807" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G807" t="n">
         <v>13</v>
@@ -21463,13 +21463,13 @@
         <v>13</v>
       </c>
       <c r="D809" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E809" t="n">
         <v>12</v>
       </c>
       <c r="F809" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G809" t="n">
         <v>12</v>
@@ -21515,7 +21515,7 @@
         <v>17</v>
       </c>
       <c r="D811" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E811" t="n">
         <v>16</v>
@@ -21547,7 +21547,7 @@
         <v>15</v>
       </c>
       <c r="F812" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G812" t="n">
         <v>13</v>
@@ -21567,7 +21567,7 @@
         <v>12</v>
       </c>
       <c r="D813" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -21619,7 +21619,7 @@
         <v>8</v>
       </c>
       <c r="D815" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E815" t="n">
         <v>11</v>
@@ -21645,13 +21645,13 @@
         <v>15</v>
       </c>
       <c r="D816" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E816" t="n">
         <v>12</v>
       </c>
       <c r="F816" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G816" t="n">
         <v>11</v>
@@ -21671,7 +21671,7 @@
         <v>10</v>
       </c>
       <c r="D817" t="n">
-        <v>7.000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E817" t="n">
         <v>8</v>
@@ -21755,7 +21755,7 @@
         <v>10</v>
       </c>
       <c r="F820" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G820" t="n">
         <v>9</v>
@@ -21827,7 +21827,7 @@
         <v>14</v>
       </c>
       <c r="D823" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E823" t="n">
         <v>15</v>
@@ -21885,7 +21885,7 @@
         <v>5</v>
       </c>
       <c r="F825" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G825" t="n">
         <v>5</v>
@@ -21937,7 +21937,7 @@
         <v>13</v>
       </c>
       <c r="F827" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G827" t="n">
         <v>11</v>
@@ -21957,13 +21957,13 @@
         <v>12</v>
       </c>
       <c r="D828" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
       </c>
       <c r="F828" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G828" t="n">
         <v>12</v>
@@ -21989,7 +21989,7 @@
         <v>14</v>
       </c>
       <c r="F829" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G829" t="n">
         <v>12</v>
@@ -22035,13 +22035,13 @@
         <v>10</v>
       </c>
       <c r="D831" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
       </c>
       <c r="F831" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G831" t="n">
         <v>12</v>
@@ -22061,7 +22061,7 @@
         <v>14</v>
       </c>
       <c r="D832" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E832" t="n">
         <v>16</v>
@@ -22093,7 +22093,7 @@
         <v>13</v>
       </c>
       <c r="F833" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G833" t="n">
         <v>11</v>
@@ -22119,7 +22119,7 @@
         <v>6</v>
       </c>
       <c r="F834" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G834" t="n">
         <v>7.000000000000001</v>
@@ -22139,7 +22139,7 @@
         <v>14</v>
       </c>
       <c r="D835" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E835" t="n">
         <v>15</v>
@@ -22165,13 +22165,13 @@
         <v>8</v>
       </c>
       <c r="D836" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E836" t="n">
         <v>12</v>
       </c>
       <c r="F836" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G836" t="n">
         <v>11</v>
@@ -22243,7 +22243,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D839" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E839" t="n">
         <v>5</v>
@@ -22347,7 +22347,7 @@
         <v>3</v>
       </c>
       <c r="D843" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E843" t="n">
         <v>4</v>
@@ -22399,7 +22399,7 @@
         <v>9</v>
       </c>
       <c r="D845" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E845" t="n">
         <v>9</v>
@@ -22425,7 +22425,7 @@
         <v>0</v>
       </c>
       <c r="D846" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E846" t="n">
         <v>0</v>
@@ -22451,13 +22451,13 @@
         <v>12</v>
       </c>
       <c r="D847" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E847" t="n">
         <v>11</v>
       </c>
       <c r="F847" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G847" t="n">
         <v>11</v>
@@ -22503,7 +22503,7 @@
         <v>13</v>
       </c>
       <c r="D849" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -22529,13 +22529,13 @@
         <v>12</v>
       </c>
       <c r="D850" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
       </c>
       <c r="F850" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G850" t="n">
         <v>11</v>
@@ -22555,7 +22555,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D851" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E851" t="n">
         <v>14</v>
@@ -22607,7 +22607,7 @@
         <v>11</v>
       </c>
       <c r="D853" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E853" t="n">
         <v>12</v>
@@ -22691,7 +22691,7 @@
         <v>15</v>
       </c>
       <c r="F856" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G856" t="n">
         <v>12</v>
@@ -22711,13 +22711,13 @@
         <v>10</v>
       </c>
       <c r="D857" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E857" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F857" t="n">
-        <v>9</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G857" t="n">
         <v>7.000000000000001</v>
@@ -22737,13 +22737,13 @@
         <v>12</v>
       </c>
       <c r="D858" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E858" t="n">
         <v>11</v>
       </c>
       <c r="F858" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G858" t="n">
         <v>9</v>
@@ -22841,13 +22841,13 @@
         <v>10</v>
       </c>
       <c r="D862" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E862" t="n">
         <v>12</v>
       </c>
       <c r="F862" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G862" t="n">
         <v>9</v>
@@ -22899,7 +22899,7 @@
         <v>12</v>
       </c>
       <c r="F864" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G864" t="n">
         <v>12</v>
@@ -22977,7 +22977,7 @@
         <v>14</v>
       </c>
       <c r="F867" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G867" t="n">
         <v>12</v>
@@ -22997,7 +22997,7 @@
         <v>16</v>
       </c>
       <c r="D868" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E868" t="n">
         <v>16</v>
@@ -23029,7 +23029,7 @@
         <v>2</v>
       </c>
       <c r="F869" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G869" t="n">
         <v>3</v>
@@ -23075,7 +23075,7 @@
         <v>15</v>
       </c>
       <c r="D871" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E871" t="n">
         <v>16</v>
@@ -23127,7 +23127,7 @@
         <v>13</v>
       </c>
       <c r="D873" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -23153,13 +23153,13 @@
         <v>6</v>
       </c>
       <c r="D874" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E874" t="n">
         <v>3</v>
       </c>
       <c r="F874" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G874" t="n">
         <v>5</v>
@@ -23179,13 +23179,13 @@
         <v>8</v>
       </c>
       <c r="D875" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E875" t="n">
         <v>4</v>
       </c>
       <c r="F875" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G875" t="n">
         <v>5</v>
@@ -23231,13 +23231,13 @@
         <v>8</v>
       </c>
       <c r="D877" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E877" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F877" t="n">
-        <v>5</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="G877" t="n">
         <v>8</v>
@@ -23263,7 +23263,7 @@
         <v>11</v>
       </c>
       <c r="F878" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G878" t="n">
         <v>10</v>
@@ -23309,7 +23309,7 @@
         <v>14</v>
       </c>
       <c r="D880" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E880" t="n">
         <v>14</v>
@@ -23335,7 +23335,7 @@
         <v>11</v>
       </c>
       <c r="D881" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E881" t="n">
         <v>9</v>
@@ -23413,7 +23413,7 @@
         <v>9</v>
       </c>
       <c r="D884" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E884" t="n">
         <v>11</v>
@@ -23439,7 +23439,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D885" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E885" t="n">
         <v>8</v>
@@ -23465,7 +23465,7 @@
         <v>15</v>
       </c>
       <c r="D886" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -23491,13 +23491,13 @@
         <v>3</v>
       </c>
       <c r="D887" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E887" t="n">
         <v>8</v>
       </c>
       <c r="F887" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G887" t="n">
         <v>7.000000000000001</v>
@@ -23569,7 +23569,7 @@
         <v>13</v>
       </c>
       <c r="D890" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E890" t="n">
         <v>14</v>
@@ -23627,7 +23627,7 @@
         <v>12</v>
       </c>
       <c r="F892" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G892" t="n">
         <v>11</v>
@@ -23673,13 +23673,13 @@
         <v>9</v>
       </c>
       <c r="D894" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E894" t="n">
         <v>11</v>
       </c>
       <c r="F894" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G894" t="n">
         <v>10</v>
@@ -23725,13 +23725,13 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D896" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E896" t="n">
         <v>12</v>
       </c>
       <c r="F896" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G896" t="n">
         <v>8</v>
@@ -23829,7 +23829,7 @@
         <v>16</v>
       </c>
       <c r="D900" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E900" t="n">
         <v>16</v>
@@ -23881,7 +23881,7 @@
         <v>16</v>
       </c>
       <c r="D902" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E902" t="n">
         <v>16</v>
@@ -23939,7 +23939,7 @@
         <v>14</v>
       </c>
       <c r="F904" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G904" t="n">
         <v>12</v>
@@ -23991,7 +23991,7 @@
         <v>5</v>
       </c>
       <c r="F906" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G906" t="n">
         <v>4</v>
@@ -24063,13 +24063,13 @@
         <v>11</v>
       </c>
       <c r="D909" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E909" t="n">
         <v>11</v>
       </c>
       <c r="F909" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G909" t="n">
         <v>11</v>
@@ -24089,7 +24089,7 @@
         <v>14</v>
       </c>
       <c r="D910" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E910" t="n">
         <v>14</v>
@@ -24173,7 +24173,7 @@
         <v>13</v>
       </c>
       <c r="F913" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G913" t="n">
         <v>11</v>
@@ -24193,7 +24193,7 @@
         <v>15</v>
       </c>
       <c r="D914" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E914" t="n">
         <v>16</v>
@@ -24219,13 +24219,13 @@
         <v>12</v>
       </c>
       <c r="D915" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E915" t="n">
         <v>11</v>
       </c>
       <c r="F915" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G915" t="n">
         <v>10</v>
@@ -24271,7 +24271,7 @@
         <v>13</v>
       </c>
       <c r="D917" t="n">
-        <v>7.000000000000001</v>
+        <v>9</v>
       </c>
       <c r="E917" t="n">
         <v>9</v>
@@ -24297,13 +24297,13 @@
         <v>13</v>
       </c>
       <c r="D918" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E918" t="n">
         <v>10</v>
       </c>
       <c r="F918" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G918" t="n">
         <v>9</v>
@@ -24355,7 +24355,7 @@
         <v>10</v>
       </c>
       <c r="F920" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G920" t="n">
         <v>9</v>
@@ -24375,13 +24375,13 @@
         <v>12</v>
       </c>
       <c r="D921" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
       </c>
       <c r="F921" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G921" t="n">
         <v>12</v>
@@ -24401,7 +24401,7 @@
         <v>13</v>
       </c>
       <c r="D922" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -24427,7 +24427,7 @@
         <v>15</v>
       </c>
       <c r="D923" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E923" t="n">
         <v>16</v>
@@ -24453,13 +24453,13 @@
         <v>14</v>
       </c>
       <c r="D924" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E924" t="n">
         <v>15</v>
       </c>
       <c r="F924" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G924" t="n">
         <v>13</v>
@@ -24557,7 +24557,7 @@
         <v>12</v>
       </c>
       <c r="D928" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E928" t="n">
         <v>12</v>
@@ -24583,13 +24583,13 @@
         <v>12</v>
       </c>
       <c r="D929" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
       </c>
       <c r="F929" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G929" t="n">
         <v>12</v>
@@ -24609,7 +24609,7 @@
         <v>12</v>
       </c>
       <c r="D930" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -24635,7 +24635,7 @@
         <v>17</v>
       </c>
       <c r="D931" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E931" t="n">
         <v>16</v>
@@ -24687,7 +24687,7 @@
         <v>11</v>
       </c>
       <c r="D933" t="n">
-        <v>8</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E933" t="n">
         <v>8</v>
@@ -24739,13 +24739,13 @@
         <v>1</v>
       </c>
       <c r="D935" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E935" t="n">
         <v>7.000000000000001</v>
       </c>
       <c r="F935" t="n">
-        <v>7.000000000000001</v>
+        <v>5</v>
       </c>
       <c r="G935" t="n">
         <v>5</v>
@@ -24765,13 +24765,13 @@
         <v>9</v>
       </c>
       <c r="D936" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E936" t="n">
         <v>9</v>
       </c>
       <c r="F936" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G936" t="n">
         <v>9</v>
@@ -24791,7 +24791,7 @@
         <v>11</v>
       </c>
       <c r="D937" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E937" t="n">
         <v>14</v>
@@ -24843,13 +24843,13 @@
         <v>8</v>
       </c>
       <c r="D939" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E939" t="n">
         <v>4</v>
       </c>
       <c r="F939" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G939" t="n">
         <v>6</v>
@@ -24869,7 +24869,7 @@
         <v>11</v>
       </c>
       <c r="D940" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E940" t="n">
         <v>10</v>
@@ -24921,13 +24921,13 @@
         <v>14</v>
       </c>
       <c r="D942" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E942" t="n">
         <v>14</v>
       </c>
       <c r="F942" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G942" t="n">
         <v>11</v>
@@ -24999,7 +24999,7 @@
         <v>5</v>
       </c>
       <c r="D945" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E945" t="n">
         <v>1</v>
@@ -25025,7 +25025,7 @@
         <v>12</v>
       </c>
       <c r="D946" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -25051,7 +25051,7 @@
         <v>10</v>
       </c>
       <c r="D947" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E947" t="n">
         <v>7.000000000000001</v>
@@ -25077,7 +25077,7 @@
         <v>1</v>
       </c>
       <c r="D948" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E948" t="n">
         <v>0</v>
@@ -25181,13 +25181,13 @@
         <v>13</v>
       </c>
       <c r="D952" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E952" t="n">
         <v>12</v>
       </c>
       <c r="F952" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G952" t="n">
         <v>10</v>
@@ -25233,7 +25233,7 @@
         <v>13</v>
       </c>
       <c r="D954" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E954" t="n">
         <v>12</v>
@@ -25285,13 +25285,13 @@
         <v>11</v>
       </c>
       <c r="D956" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E956" t="n">
         <v>14</v>
       </c>
       <c r="F956" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G956" t="n">
         <v>11</v>
@@ -25337,13 +25337,13 @@
         <v>9</v>
       </c>
       <c r="D958" t="n">
-        <v>6</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E958" t="n">
         <v>6</v>
       </c>
       <c r="F958" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G958" t="n">
         <v>7.000000000000001</v>
@@ -25363,13 +25363,13 @@
         <v>12</v>
       </c>
       <c r="D959" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E959" t="n">
         <v>12</v>
       </c>
       <c r="F959" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G959" t="n">
         <v>12</v>
@@ -25389,13 +25389,13 @@
         <v>13</v>
       </c>
       <c r="D960" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E960" t="n">
         <v>12</v>
       </c>
       <c r="F960" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G960" t="n">
         <v>12</v>
@@ -25415,7 +25415,7 @@
         <v>12</v>
       </c>
       <c r="D961" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -25441,13 +25441,13 @@
         <v>2</v>
       </c>
       <c r="D962" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E962" t="n">
         <v>3</v>
       </c>
       <c r="F962" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G962" t="n">
         <v>4</v>
